--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD1572-B4E9-49B5-925B-9CA29E6485C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB512-014F-4E8C-824B-52EFE5F4AEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="102">
   <si>
     <t>Transactions</t>
   </si>
@@ -344,10 +344,16 @@
     <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
   <si>
-    <t>ATTRIBUTES_INTEREST_RATE_CURRENT</t>
-  </si>
-  <si>
     <t>Helper Column</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_UNPAID_PRINCIPAL_BALANCE</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -768,6 +774,10 @@
     <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,18 +1102,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="H1" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="89"/>
+      <c r="I1" s="93"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2551,38 +2561,38 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="H5" s="101" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="H5" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="P5" s="100" t="s">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="P5" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="W5" s="100" t="s">
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="W5" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
@@ -3481,7 +3491,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,16 +3504,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3611,10 +3621,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,36 +3639,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="92" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,7 +3674,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,15 +3777,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
@@ -3841,15 +3842,15 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
@@ -3955,15 +3956,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -4097,15 +4098,15 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
@@ -4270,15 +4271,15 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
@@ -4384,15 +4385,15 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="92"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
@@ -4579,15 +4580,15 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="92"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
       <c r="J51" s="80"/>
@@ -4841,15 +4842,15 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="92"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="96"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="80"/>
@@ -5001,15 +5002,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="92"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="96"/>
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
       <c r="J69" s="80"/>
@@ -5143,15 +5144,15 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="92"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="96"/>
       <c r="H76" s="80"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -5498,15 +5499,15 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="90" t="s">
+      <c r="A94" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="92"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="96"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
@@ -5600,7 +5601,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -5621,45 +5622,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="29">
-        <f>INT_ACC!E2/100</f>
-        <v>0</v>
+      <c r="B2" s="29" t="e">
+        <f>INT_ACC!#REF!/100</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30">
-        <f>INT_ACC!C2</f>
-        <v>0</v>
+      <c r="B3" s="30" t="e">
+        <f>INT_ACC!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="str">
-        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
-        <v/>
+      <c r="B4" s="31" t="e">
+        <f>IF(INT_ACC!#REF!="","",INT_ACC!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="D4" s="63"/>
     </row>
@@ -5667,9 +5668,9 @@
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="31" t="e">
         <f>IF(OR(MIN(PMT!$B$2:$B$13)=B4,MIN(PMT!$B$2:$B$13)=0),"",MIN(PMT!$B$2:$B$13))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -5719,7 +5720,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5731,11 +5732,11 @@
         <v/>
       </c>
       <c r="C9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,5,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,5,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!#REF!,5,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,5,FALSE))),"")</f>
         <v/>
       </c>
       <c r="D9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,6,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,6,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!#REF!,6,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,6,FALSE))),"")</f>
         <v/>
       </c>
       <c r="E9" s="34" t="str">
@@ -6420,19 +6421,19 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -6473,21 +6474,21 @@
       <c r="A26" s="43">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="str">
-        <f>IF(INT_ACC!B2="","",INT_ACC!B2)</f>
-        <v/>
-      </c>
-      <c r="C26" s="43">
-        <f>INT_ACC!F2</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="43">
-        <f>INT_ACC!G2</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="34" t="str">
+      <c r="B26" s="33" t="e">
+        <f>IF(INT_ACC!#REF!="","",INT_ACC!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="43" t="e">
+        <f>INT_ACC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="43" t="e">
+        <f>INT_ACC!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="34" t="e">
         <f>IF(B26="","",IF(B27="",0,(B27-B26)-1))</f>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="F26" s="34">
         <v>0</v>
@@ -6500,35 +6501,35 @@
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="e">
         <f>C26-H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="45">
+        <v>#REF!</v>
+      </c>
+      <c r="J26" s="45" t="e">
         <f>IF(B26="",0,(I26*$B$2)/360)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="46">
+        <v>#REF!</v>
+      </c>
+      <c r="K26" s="46" t="e">
         <f>D26+J26-G26</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="98"/>
+      <c r="B28" s="102"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="47" t="e">
         <f>J26</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6552,10 +6553,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="98"/>
+      <c r="B34" s="102"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -6577,14 +6578,14 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="99"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -6607,29 +6608,29 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="str">
+      <c r="A40" s="1" t="e">
         <f>B4</f>
-        <v/>
-      </c>
-      <c r="B40" s="1" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B40" s="1" t="e">
         <f>A40</f>
-        <v/>
-      </c>
-      <c r="C40" s="8" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C40" s="8" t="e">
         <f>IF(A40="","",$B$3)</f>
-        <v/>
-      </c>
-      <c r="D40" s="8" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D40" s="8" t="e">
         <f>IF(A40="","","Servicing_Interest_Accrual")</f>
-        <v/>
-      </c>
-      <c r="E40" s="32" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="32" t="e">
         <f>IF(A40="","",ROUND(B29,4))</f>
-        <v/>
-      </c>
-      <c r="F40" s="8" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F40" s="8" t="e">
         <f>IF(A40="","","1")</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,15 +6773,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -7022,15 +7023,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -7170,15 +7171,15 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
@@ -7522,29 +7523,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="3" t="e">
         <f>CALCULATION!A40</f>
-        <v/>
-      </c>
-      <c r="B2" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B2" s="3" t="e">
         <f>CALCULATION!B40</f>
-        <v/>
-      </c>
-      <c r="C2" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="3" t="e">
         <f>CALCULATION!C40</f>
-        <v/>
-      </c>
-      <c r="D2" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="3" t="e">
         <f>CALCULATION!D40</f>
-        <v/>
-      </c>
-      <c r="E2" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="6" t="e">
         <f>CALCULATION!E40</f>
-        <v/>
-      </c>
-      <c r="F2" s="7" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
         <f>CALCULATION!F40</f>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB512-014F-4E8C-824B-52EFE5F4AEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448C8E3-E230-4445-B16B-A8C8A64AE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -338,22 +338,22 @@
     <t>TRANSACTIONS_AMOUNT_REMIT</t>
   </si>
   <si>
-    <t>BALANCES_BEGINNINGBALANCE_Unpaid_Principal_Balance</t>
-  </si>
-  <si>
-    <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
-  </si>
-  <si>
     <t>Helper Column</t>
   </si>
   <si>
-    <t>BALANCES_BEGINNINGBALANCE_UNPAID_PRINCIPAL_BALANCE</t>
-  </si>
-  <si>
-    <t>BALANCES_BEGINNINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
-  </si>
-  <si>
     <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_UNPAID_PRINCIPAL_BALANCE</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
 </sst>
 </file>
@@ -3623,8 +3623,8 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,13 +3652,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="89" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3673,8 +3673,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,10 +3705,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5577,17 +5577,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5720,7 +5720,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448C8E3-E230-4445-B16B-A8C8A64AE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EE993-94E6-46EE-BCF4-DA52011FEF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -3673,7 +3673,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5577,17 +5577,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5601,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,27 +5640,27 @@
       <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="29" t="e">
-        <f>INT_ACC!#REF!/100</f>
-        <v>#REF!</v>
+      <c r="B2" s="29">
+        <f>INT_ACC!E2/100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30" t="e">
-        <f>INT_ACC!#REF!</f>
-        <v>#REF!</v>
+      <c r="B3" s="30">
+        <f>INT_ACC!C2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="e">
-        <f>IF(INT_ACC!#REF!="","",INT_ACC!#REF!)</f>
-        <v>#REF!</v>
+      <c r="B4" s="31" t="str">
+        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
+        <v/>
       </c>
       <c r="D4" s="63"/>
     </row>
@@ -5668,9 +5668,9 @@
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="31" t="e">
+      <c r="B5" s="31" t="str">
         <f>IF(OR(MIN(PMT!$B$2:$B$13)=B4,MIN(PMT!$B$2:$B$13)=0),"",MIN(PMT!$B$2:$B$13))</f>
-        <v>#REF!</v>
+        <v/>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -6474,21 +6474,21 @@
       <c r="A26" s="43">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="e">
-        <f>IF(INT_ACC!#REF!="","",INT_ACC!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C26" s="43" t="e">
-        <f>INT_ACC!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="43" t="e">
-        <f>INT_ACC!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="34" t="e">
+      <c r="B26" s="33">
+        <f>IF(INT_ACC!B2&lt;&gt;"","",INT_ACC!B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <f>INT_ACC!F2</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <f>INT_ACC!G2</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="34">
         <f>IF(B26="","",IF(B27="",0,(B27-B26)-1))</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F26" s="34">
         <v>0</v>
@@ -6501,17 +6501,17 @@
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="I26" s="44" t="e">
+      <c r="I26" s="44">
         <f>C26-H26</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="J26" s="45">
         <f>IF(B26="",0,(I26*$B$2)/360)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="46" t="e">
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
         <f>D26+J26-G26</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6527,9 +6527,9 @@
       <c r="A29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="47" t="e">
+      <c r="B29" s="47">
         <f>J26</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6608,29 +6608,29 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="e">
+      <c r="A40" s="1" t="str">
         <f>B4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B40" s="1" t="e">
+        <v/>
+      </c>
+      <c r="B40" s="1" t="str">
         <f>A40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C40" s="8" t="e">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="str">
         <f>IF(A40="","",$B$3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D40" s="8" t="e">
+        <v/>
+      </c>
+      <c r="D40" s="8" t="str">
         <f>IF(A40="","","Servicing_Interest_Accrual")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="32" t="e">
+        <v/>
+      </c>
+      <c r="E40" s="32" t="str">
         <f>IF(A40="","",ROUND(B29,4))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="8" t="e">
+        <v/>
+      </c>
+      <c r="F40" s="8" t="str">
         <f>IF(A40="","","1")</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7523,29 +7523,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="e">
+      <c r="A2" s="3" t="str">
         <f>CALCULATION!A40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B2" s="3" t="e">
+        <v/>
+      </c>
+      <c r="B2" s="3" t="str">
         <f>CALCULATION!B40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="3" t="e">
+        <v/>
+      </c>
+      <c r="C2" s="3" t="str">
         <f>CALCULATION!C40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="3" t="e">
+        <v/>
+      </c>
+      <c r="D2" s="3" t="str">
         <f>CALCULATION!D40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="6" t="e">
+        <v/>
+      </c>
+      <c r="E2" s="6" t="str">
         <f>CALCULATION!E40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
+        <v/>
+      </c>
+      <c r="F2" s="7" t="str">
         <f>CALCULATION!F40</f>
-        <v>#REF!</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EE993-94E6-46EE-BCF4-DA52011FEF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2BCE2-F11E-47B5-9D34-5F25027459FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -3621,11 +3621,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:R58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3660,6 +3658,15 @@
       <c r="G1" s="89" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,8 +3766,8 @@
   </sheetPr>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:G91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,17 +5584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5601,8 +5608,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5732,11 +5739,11 @@
         <v/>
       </c>
       <c r="C9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!#REF!,5,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,5,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,5,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,5,FALSE))),"")</f>
         <v/>
       </c>
       <c r="D9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!#REF!,6,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,6,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,6,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,6,FALSE))),"")</f>
         <v/>
       </c>
       <c r="E9" s="34" t="str">
@@ -6474,9 +6481,9 @@
       <c r="A26" s="43">
         <v>1</v>
       </c>
-      <c r="B26" s="33">
-        <f>IF(INT_ACC!B2&lt;&gt;"","",INT_ACC!B2)</f>
-        <v>0</v>
+      <c r="B26" s="33" t="str">
+        <f>IF(INT_ACC!B2="","",INT_ACC!B2)</f>
+        <v/>
       </c>
       <c r="C26" s="43">
         <f>INT_ACC!F2</f>
@@ -6486,9 +6493,9 @@
         <f>INT_ACC!G2</f>
         <v>0</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="34" t="str">
         <f>IF(B26="","",IF(B27="",0,(B27-B26)-1))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F26" s="34">
         <v>0</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2BCE2-F11E-47B5-9D34-5F25027459FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8062CA-DC69-480E-A493-4BD1B40DAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -622,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -813,6 +813,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3491,7 +3493,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,7 +3625,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3681,7 +3683,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3769,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,17 +5586,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5609,7 +5611,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,7 +6638,7 @@
         <v/>
       </c>
       <c r="F40" s="8" t="str">
-        <f>IF(A40="","","1")</f>
+        <f>IF(A40="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6662,7 +6664,7 @@
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(A41="","","1")</f>
+        <f>IF(A41="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6688,7 +6690,7 @@
         <v/>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" ref="F42:F43" si="11">IF(A42="","","1")</f>
+        <f>IF(A42="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6714,7 +6716,7 @@
         <v/>
       </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(A43="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6740,7 +6742,7 @@
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f>IF(A44="","","1")</f>
+        <f>IF(A44="","",INT_ACC!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7494,16 +7496,16 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="107" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="107" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7516,10 +7518,10 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="106" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="26" t="s">
@@ -7538,11 +7540,11 @@
         <f>CALCULATION!B40</f>
         <v/>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="107" t="str">
         <f>CALCULATION!C40</f>
         <v/>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="107" t="str">
         <f>CALCULATION!D40</f>
         <v/>
       </c>
@@ -7564,11 +7566,11 @@
         <f>CALCULATION!B41</f>
         <v/>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="107" t="str">
         <f>CALCULATION!C41</f>
         <v/>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="107" t="str">
         <f>CALCULATION!D41</f>
         <v/>
       </c>
@@ -7590,11 +7592,11 @@
         <f>CALCULATION!B42</f>
         <v/>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="107" t="str">
         <f>CALCULATION!C42</f>
         <v/>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="107" t="str">
         <f>CALCULATION!D42</f>
         <v/>
       </c>
@@ -7616,11 +7618,11 @@
         <f>CALCULATION!B43</f>
         <v/>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="107" t="str">
         <f>CALCULATION!C43</f>
         <v/>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="107" t="str">
         <f>CALCULATION!D43</f>
         <v/>
       </c>
@@ -7642,11 +7644,11 @@
         <f>CALCULATION!B44</f>
         <v/>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="107" t="str">
         <f>CALCULATION!C44</f>
         <v/>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="107" t="str">
         <f>CALCULATION!D44</f>
         <v/>
       </c>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8062CA-DC69-480E-A493-4BD1B40DAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964AAA8-E681-48B8-B6F1-BB1D073EF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -778,6 +778,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,8 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,18 +1104,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="93"/>
+      <c r="I1" s="95"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2563,38 +2563,38 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="H5" s="105" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="H5" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="P5" s="104" t="s">
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="P5" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="W5" s="104" t="s">
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="W5" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
@@ -3625,7 +3625,9 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3769,7 +3771,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,15 +3788,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
@@ -3851,15 +3853,15 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
@@ -3965,15 +3967,15 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -4107,15 +4109,15 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
@@ -4280,15 +4282,15 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
@@ -4394,15 +4396,15 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
@@ -4589,15 +4591,15 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="98"/>
       <c r="H51" s="80"/>
       <c r="I51" s="80"/>
       <c r="J51" s="80"/>
@@ -4851,15 +4853,15 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="96"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="98"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="80"/>
@@ -5011,15 +5013,15 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="96"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
       <c r="H69" s="80"/>
       <c r="I69" s="80"/>
       <c r="J69" s="80"/>
@@ -5153,15 +5155,15 @@
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="96"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="98"/>
       <c r="H76" s="80"/>
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
@@ -5508,15 +5510,15 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="94" t="s">
+      <c r="A94" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="95"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="96"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="98"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
@@ -5586,17 +5588,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5631,19 +5633,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -6430,19 +6432,19 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -6527,10 +6529,10 @@
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="102"/>
+      <c r="B28" s="104"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
@@ -6562,10 +6564,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="104"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -6587,14 +6589,14 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -6782,15 +6784,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -7032,15 +7034,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -7180,15 +7182,15 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
@@ -7496,7 +7498,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7504,8 +7506,8 @@
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="107" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="107" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="94" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7518,10 +7520,10 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="93" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="26" t="s">
@@ -7540,11 +7542,11 @@
         <f>CALCULATION!B40</f>
         <v/>
       </c>
-      <c r="C2" s="107" t="str">
+      <c r="C2" s="3" t="str">
         <f>CALCULATION!C40</f>
         <v/>
       </c>
-      <c r="D2" s="107" t="str">
+      <c r="D2" s="3" t="str">
         <f>CALCULATION!D40</f>
         <v/>
       </c>
@@ -7566,11 +7568,11 @@
         <f>CALCULATION!B41</f>
         <v/>
       </c>
-      <c r="C3" s="107" t="str">
+      <c r="C3" s="3" t="str">
         <f>CALCULATION!C41</f>
         <v/>
       </c>
-      <c r="D3" s="107" t="str">
+      <c r="D3" s="3" t="str">
         <f>CALCULATION!D41</f>
         <v/>
       </c>
@@ -7592,11 +7594,11 @@
         <f>CALCULATION!B42</f>
         <v/>
       </c>
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="3" t="str">
         <f>CALCULATION!C42</f>
         <v/>
       </c>
-      <c r="D4" s="107" t="str">
+      <c r="D4" s="3" t="str">
         <f>CALCULATION!D42</f>
         <v/>
       </c>
@@ -7618,11 +7620,11 @@
         <f>CALCULATION!B43</f>
         <v/>
       </c>
-      <c r="C5" s="107" t="str">
+      <c r="C5" s="3" t="str">
         <f>CALCULATION!C43</f>
         <v/>
       </c>
-      <c r="D5" s="107" t="str">
+      <c r="D5" s="3" t="str">
         <f>CALCULATION!D43</f>
         <v/>
       </c>
@@ -7644,11 +7646,11 @@
         <f>CALCULATION!B44</f>
         <v/>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="3" t="str">
         <f>CALCULATION!C44</f>
         <v/>
       </c>
-      <c r="D6" s="107" t="str">
+      <c r="D6" s="3" t="str">
         <f>CALCULATION!D44</f>
         <v/>
       </c>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964AAA8-E681-48B8-B6F1-BB1D073EF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F74B03A-F45B-401F-806E-D5C47E9B3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="103">
   <si>
     <t>Transactions</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
+  </si>
+  <si>
+    <t>TransactionName</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +458,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79989013336588644"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -815,6 +824,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3625,7 +3635,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5588,17 +5598,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5613,7 +5623,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,8 +7508,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7523,8 +7533,8 @@
       <c r="C1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="93" t="s">
-        <v>10</v>
+      <c r="D1" s="108" t="s">
+        <v>102</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F74B03A-F45B-401F-806E-D5C47E9B3199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC1E61D-42CF-4F9F-A861-284B101B1176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="103">
   <si>
     <t>Transactions</t>
   </si>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -783,12 +783,12 @@
     <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,7 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3503,7 +3502,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,16 +3515,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3636,7 +3635,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,31 +3650,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="61" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="85"/>
@@ -3695,7 +3694,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,10 +3777,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5305,7 +5304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J81" s="63">
         <v>44601</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="79" t="s">
         <v>61</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>3</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>44601</v>
       </c>
@@ -5400,12 +5399,12 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>3</v>
       </c>
@@ -5427,8 +5426,14 @@
       <c r="G87" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Y87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z87" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>44601</v>
       </c>
@@ -5450,8 +5455,14 @@
       <c r="G88" s="9">
         <v>155.55555555555554</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Y88" s="9">
+        <v>100000</v>
+      </c>
+      <c r="Z88" s="9">
+        <v>155.55555555555554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>44601</v>
       </c>
@@ -5467,14 +5478,16 @@
       <c r="E89" s="9">
         <v>275</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="Y89" s="9">
         <v>100000</v>
       </c>
-      <c r="G89" s="9">
+      <c r="Z89" s="9">
         <v>131.11111111111109</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>44601</v>
       </c>
@@ -5490,14 +5503,16 @@
       <c r="E90" s="9">
         <v>350</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="Y90" s="9">
         <v>99856.111111111109</v>
       </c>
-      <c r="G90" s="9">
+      <c r="Z90" s="9">
         <v>27.64829136659808</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>44601</v>
       </c>
@@ -5511,15 +5526,17 @@
         <v>1</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="9">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="Y91" s="9">
         <v>99533.848919753087</v>
       </c>
-      <c r="G91" s="9">
+      <c r="Z91" s="9">
         <v>82.944874099794248</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="96" t="s">
         <v>94</v>
       </c>
@@ -5530,7 +5547,7 @@
       <c r="F94" s="97"/>
       <c r="G94" s="98"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="80"/>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -5539,7 +5556,7 @@
       <c r="F95" s="80"/>
       <c r="G95" s="80"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="79" t="s">
         <v>84</v>
       </c>
@@ -5622,8 +5639,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7508,7 +7525,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7516,8 +7533,8 @@
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="94" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="94" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="93" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7530,10 +7547,10 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="94" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="26" t="s">

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC1E61D-42CF-4F9F-A861-284B101B1176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188E016-AC3E-47D4-9CAF-EB941CAA4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="30" r:id="rId1"/>
-    <sheet name="PMT" sheetId="27" r:id="rId2"/>
-    <sheet name="INT_ACC" sheetId="28" r:id="rId3"/>
-    <sheet name="PMT_RP" sheetId="33" r:id="rId4"/>
+    <sheet name="TRANX" sheetId="27" r:id="rId2"/>
+    <sheet name="EOD" sheetId="28" r:id="rId3"/>
+    <sheet name="REPLAY" sheetId="33" r:id="rId4"/>
     <sheet name="EXPECTED" sheetId="35" r:id="rId5"/>
     <sheet name="CALCULATION" sheetId="29" r:id="rId6"/>
     <sheet name="Sample Data" sheetId="31" r:id="rId7"/>
@@ -344,19 +344,19 @@
     <t>ATTRIBUTE_INTEREST_RATE_CURRENT</t>
   </si>
   <si>
-    <t>BALANCES_ENDINGBALANCE_UNPAID_PRINCIPAL_BALANCE</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance</t>
-  </si>
-  <si>
-    <t>BALANCES_ENDINGBALANCE_Accrued_Interest_Receivable</t>
-  </si>
-  <si>
     <t>TransactionName</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_UNPAID_PRINCIPAL_BALANCE</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_ACCRUED_INTEREST_RECEIVABLE</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Unpaid_Principal_Balance</t>
+  </si>
+  <si>
+    <t>BALANCES_BEGINNINGBALANCE_Accrued_Interest_Receivable</t>
   </si>
 </sst>
 </file>
@@ -3635,7 +3635,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="F1" sqref="A1:R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,10 +3666,10 @@
         <v>97</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,8 +3693,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,10 +3725,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5615,17 +5615,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5679,7 +5679,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="29">
-        <f>INT_ACC!E2/100</f>
+        <f>EOD!E2/100</f>
         <v>0</v>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="30">
-        <f>INT_ACC!C2</f>
+        <f>EOD!C2</f>
         <v>0</v>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="str">
-        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
+        <f>IF(EOD!A2="","",EOD!A2)</f>
         <v/>
       </c>
       <c r="D4" s="63"/>
@@ -5707,7 +5707,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="31" t="str">
-        <f>IF(OR(MIN(PMT!$B$2:$B$13)=B4,MIN(PMT!$B$2:$B$13)=0),"",MIN(PMT!$B$2:$B$13))</f>
+        <f>IF(OR(MIN(TRANX!$B$2:$B$13)=B4,MIN(TRANX!$B$2:$B$13)=0),"",MIN(TRANX!$B$2:$B$13))</f>
         <v/>
       </c>
       <c r="D5" s="63"/>
@@ -5766,15 +5766,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="str">
-        <f>IFERROR(IF(AND(A9=$B$6,B8&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B2,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B2)-ROW(PMT!B$2)+1,PMT!B2,"")),"")</f>
+        <f>IFERROR(IF(AND(A9=$B$6,B8&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B2,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B2)-ROW(TRANX!B$2)+1,TRANX!B2,"")),"")</f>
         <v/>
       </c>
       <c r="C9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,5,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,5,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,EOD!$B$2:$G$5,5,FALSE),VLOOKUP(B9,REPLAY!$B$2:$G$3,5,FALSE))),"")</f>
         <v/>
       </c>
       <c r="D9" s="34" t="str">
-        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,INT_ACC!$B$2:$G$5,6,FALSE),VLOOKUP(B9,PMT_RP!$B$2:$G$3,6,FALSE))),"")</f>
+        <f>IFERROR(IF(B9="","",IF(B5="",VLOOKUP(B9,EOD!$B$2:$G$5,6,FALSE),VLOOKUP(B9,REPLAY!$B$2:$G$3,6,FALSE))),"")</f>
         <v/>
       </c>
       <c r="E9" s="34" t="str">
@@ -5782,7 +5782,7 @@
         <v/>
       </c>
       <c r="F9" s="34" t="str">
-        <f>IF(B9="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B9,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B9,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B9="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B9,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B9,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G9" s="34" t="str">
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="33" t="str">
-        <f>IFERROR(IF(AND(A10=$B$6,B9&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B3,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B3)-ROW(PMT_RP!B$2)+1,PMT_RP!B3,"")),"")</f>
+        <f>IFERROR(IF(AND(A10=$B$6,B9&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B3,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B3)-ROW(REPLAY!B$2)+1,REPLAY!B3,"")),"")</f>
         <v/>
       </c>
       <c r="C10" s="34" t="str">
@@ -5833,7 +5833,7 @@
         <v/>
       </c>
       <c r="F10" s="34" t="str">
-        <f>IF(B10="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B10,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B10,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B10="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B10,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B10,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G10" s="34" t="str">
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="33" t="str">
-        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B4,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B4)-ROW(PMT_RP!B$2)+1,PMT_RP!B4,"")),"")</f>
+        <f>IFERROR(IF(AND(A11=$B$6,B10&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B4,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B4)-ROW(REPLAY!B$2)+1,REPLAY!B4,"")),"")</f>
         <v/>
       </c>
       <c r="C11" s="34" t="str">
@@ -5884,7 +5884,7 @@
         <v/>
       </c>
       <c r="F11" s="34" t="str">
-        <f>IF(B11="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B11,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B11,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B11="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B11,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B11,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G11" s="34" t="str">
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="33" t="str">
-        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B5,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B5)-ROW(PMT_RP!B$2)+1,PMT_RP!B5,"")),"")</f>
+        <f>IFERROR(IF(AND(A12=$B$6,B11&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B5,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B5)-ROW(REPLAY!B$2)+1,REPLAY!B5,"")),"")</f>
         <v/>
       </c>
       <c r="C12" s="34" t="str">
@@ -5935,7 +5935,7 @@
         <v/>
       </c>
       <c r="F12" s="34" t="str">
-        <f>IF(B12="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B12,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B12,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B12="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B12,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B12,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G12" s="34" t="str">
@@ -5970,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="33" t="str">
-        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B6,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B6)-ROW(PMT_RP!B$2)+1,PMT_RP!B6,"")),"")</f>
+        <f>IFERROR(IF(AND(A13=$B$6,B12&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B6,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B6)-ROW(REPLAY!B$2)+1,REPLAY!B6,"")),"")</f>
         <v/>
       </c>
       <c r="C13" s="38" t="str">
@@ -5986,7 +5986,7 @@
         <v/>
       </c>
       <c r="F13" s="34" t="str">
-        <f>IF(B13="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B13,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B13,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B13="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B13,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B13,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G13" s="38" t="str">
@@ -6021,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="33" t="str">
-        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B7,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B7)-ROW(PMT_RP!B$2)+1,PMT_RP!B7,"")),"")</f>
+        <f>IFERROR(IF(AND(A14=$B$6,B13&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B7,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B7)-ROW(REPLAY!B$2)+1,REPLAY!B7,"")),"")</f>
         <v/>
       </c>
       <c r="C14" s="38" t="str">
@@ -6037,7 +6037,7 @@
         <v/>
       </c>
       <c r="F14" s="34" t="str">
-        <f>IF(B14="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B14,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B14,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B14="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B14,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B14,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G14" s="38" t="str">
@@ -6072,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="33" t="str">
-        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B8,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B8)-ROW(PMT_RP!B$2)+1,PMT_RP!B8,"")),"")</f>
+        <f>IFERROR(IF(AND(A15=$B$6,B14&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B8,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B8)-ROW(REPLAY!B$2)+1,REPLAY!B8,"")),"")</f>
         <v/>
       </c>
       <c r="C15" s="38" t="str">
@@ -6088,7 +6088,7 @@
         <v/>
       </c>
       <c r="F15" s="34" t="str">
-        <f>IF(B15="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B15,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B15,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B15="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B15,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B15,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G15" s="38" t="str">
@@ -6123,7 +6123,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="33" t="str">
-        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B9,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B9)-ROW(PMT_RP!B$2)+1,PMT_RP!B9,"")),"")</f>
+        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B9,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B9)-ROW(REPLAY!B$2)+1,REPLAY!B9,"")),"")</f>
         <v/>
       </c>
       <c r="C16" s="38" t="str">
@@ -6139,7 +6139,7 @@
         <v/>
       </c>
       <c r="F16" s="34" t="str">
-        <f>IF(B16="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B16,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B16,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B16="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B16,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B16,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G16" s="38" t="str">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="63" t="str">
-        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B9,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B9)-ROW(PMT!B$2)+1,PMT!B9,"")),"")</f>
+        <f>IFERROR(IF(AND(A16=$B$6,B15&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B9,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B9)-ROW(TRANX!B$2)+1,TRANX!B9,"")),"")</f>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -6180,7 +6180,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="33" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B10,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B10)-ROW(PMT_RP!B$2)+1,PMT_RP!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B10,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B10)-ROW(REPLAY!B$2)+1,REPLAY!B10,"")),"")</f>
         <v/>
       </c>
       <c r="C17" s="38" t="str">
@@ -6196,7 +6196,7 @@
         <v/>
       </c>
       <c r="F17" s="34" t="str">
-        <f>IF(B17="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B17,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B17,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B17="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B17,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B17,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G17" s="38" t="str">
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="63" t="str">
-        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B10,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B10)-ROW(PMT!B$2)+1,PMT!B10,"")),"")</f>
+        <f>IFERROR(IF(AND(A17=$B$6,B16&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B10,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B10)-ROW(TRANX!B$2)+1,TRANX!B10,"")),"")</f>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -6237,7 +6237,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="33" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B11,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B11)-ROW(PMT_RP!B$2)+1,PMT_RP!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B11,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B11)-ROW(REPLAY!B$2)+1,REPLAY!B11,"")),"")</f>
         <v/>
       </c>
       <c r="C18" s="38" t="str">
@@ -6253,7 +6253,7 @@
         <v/>
       </c>
       <c r="F18" s="34" t="str">
-        <f>IF(B18="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B18,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B18,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B18="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B18,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B18,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G18" s="38" t="str">
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="63" t="str">
-        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B11,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B11)-ROW(PMT!B$2)+1,PMT!B11,"")),"")</f>
+        <f>IFERROR(IF(AND(A18=$B$6,B17&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B11,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B11)-ROW(TRANX!B$2)+1,TRANX!B11,"")),"")</f>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -6294,7 +6294,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="33" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B12,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B12)-ROW(PMT_RP!B$2)+1,PMT_RP!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B12,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B12)-ROW(REPLAY!B$2)+1,REPLAY!B12,"")),"")</f>
         <v/>
       </c>
       <c r="C19" s="38" t="str">
@@ -6310,7 +6310,7 @@
         <v/>
       </c>
       <c r="F19" s="34" t="str">
-        <f>IF(B19="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B19,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B19,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B19="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B19,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B19,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G19" s="38" t="str">
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="63" t="str">
-        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B12,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B12)-ROW(PMT!B$2)+1,PMT!B12,"")),"")</f>
+        <f>IFERROR(IF(AND(A19=$B$6,B18&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B12,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B12)-ROW(TRANX!B$2)+1,TRANX!B12,"")),"")</f>
         <v/>
       </c>
       <c r="N19" s="63" t="str">
@@ -6351,7 +6351,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="33" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(PMT_RP!B13,PMT_RP!B$2:'PMT_RP'!B$97,0)=ROW(PMT_RP!B13)-ROW(PMT_RP!B$2)+1,PMT_RP!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(REPLAY!B13,REPLAY!B$2:'REPLAY'!B$97,0)=ROW(REPLAY!B13)-ROW(REPLAY!B$2)+1,REPLAY!B13,"")),"")</f>
         <v/>
       </c>
       <c r="C20" s="38" t="str">
@@ -6367,7 +6367,7 @@
         <v/>
       </c>
       <c r="F20" s="34" t="str">
-        <f>IF(B20="","",IF($B$5="",SUMIF(PMT!$B$2:$E$13,CALCULATION!B20,PMT!$E$2:$E$13),SUMIF(PMT_RP!$B$2:$E$10,CALCULATION!B20,PMT_RP!$E$2:$E$10)))</f>
+        <f>IF(B20="","",IF($B$5="",SUMIF(TRANX!$B$2:$E$13,CALCULATION!B20,TRANX!$E$2:$E$13),SUMIF(REPLAY!$B$2:$E$10,CALCULATION!B20,REPLAY!$E$2:$E$10)))</f>
         <v/>
       </c>
       <c r="G20" s="38" t="str">
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="63" t="str">
-        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(PMT!B13,PMT!B$2:'PMT'!B$100,0)=ROW(PMT!B13)-ROW(PMT!B$2)+1,PMT!B13,"")),"")</f>
+        <f>IFERROR(IF(AND(A20=$B$6,B19&lt;&gt;$B$4),$B$4,IF(MATCH(TRANX!B13,TRANX!B$2:'TRANX'!B$100,0)=ROW(TRANX!B13)-ROW(TRANX!B$2)+1,TRANX!B13,"")),"")</f>
         <v/>
       </c>
       <c r="N20" s="63" t="str">
@@ -6513,15 +6513,15 @@
         <v>1</v>
       </c>
       <c r="B26" s="33" t="str">
-        <f>IF(INT_ACC!B2="","",INT_ACC!B2)</f>
+        <f>IF(EOD!B2="","",EOD!B2)</f>
         <v/>
       </c>
       <c r="C26" s="43">
-        <f>INT_ACC!F2</f>
+        <f>EOD!F2</f>
         <v>0</v>
       </c>
       <c r="D26" s="43">
-        <f>INT_ACC!G2</f>
+        <f>EOD!G2</f>
         <v>0</v>
       </c>
       <c r="E26" s="34" t="str">
@@ -6667,7 +6667,7 @@
         <v/>
       </c>
       <c r="F40" s="8" t="str">
-        <f>IF(A40="","",INT_ACC!$D$2)</f>
+        <f>IF(A40="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
         <v/>
       </c>
       <c r="F41" s="8" t="str">
-        <f>IF(A41="","",INT_ACC!$D$2)</f>
+        <f>IF(A41="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
         <v/>
       </c>
       <c r="F42" s="8" t="str">
-        <f>IF(A42="","",INT_ACC!$D$2)</f>
+        <f>IF(A42="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
         <v/>
       </c>
       <c r="F43" s="8" t="str">
-        <f>IF(A43="","",INT_ACC!$D$2)</f>
+        <f>IF(A43="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
         <v/>
       </c>
       <c r="F44" s="8" t="str">
-        <f>IF(A44="","",INT_ACC!$D$2)</f>
+        <f>IF(A44="","",EOD!$D$2)</f>
         <v/>
       </c>
     </row>
@@ -7551,7 +7551,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M1/Model/SBO_MODEL_EVENTS_Replay_Method1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188E016-AC3E-47D4-9CAF-EB941CAA4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB7492A-0873-438B-B55E-2D31FC7CD1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -751,9 +751,6 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -789,6 +786,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,18 +1114,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="H1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="H1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="95"/>
+      <c r="I1" s="96"/>
       <c r="M1" s="8" t="s">
         <v>35</v>
       </c>
@@ -1746,7 +1747,7 @@
       <c r="D22" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="85">
         <f>-E10</f>
         <v>-27.777777777777779</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="58"/>
-      <c r="E23" s="86">
+      <c r="E23" s="85">
         <f>-E7</f>
         <v>-80</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="58"/>
-      <c r="E24" s="86">
+      <c r="E24" s="85">
         <v>30</v>
       </c>
       <c r="F24" s="59" t="s">
@@ -1811,7 +1812,7 @@
       <c r="D25" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="85">
         <f>-E8</f>
         <v>0</v>
       </c>
@@ -1834,7 +1835,7 @@
       <c r="D26" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="85">
         <f>-E9</f>
         <v>80</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="D27" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="85">
         <f>-E11</f>
         <v>-27.777799999999999</v>
       </c>
@@ -1880,7 +1881,7 @@
       <c r="D28" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="85">
         <f>-E15</f>
         <v>-27.73780864814815</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="58"/>
-      <c r="E29" s="86">
+      <c r="E29" s="85">
         <f>-E12</f>
         <v>-275</v>
       </c>
@@ -1926,7 +1927,7 @@
       <c r="D30" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="86">
+      <c r="E30" s="85">
         <f>-E13</f>
         <v>143.88886666666667</v>
       </c>
@@ -1950,7 +1951,7 @@
       <c r="D31" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="85">
         <f>-E14</f>
         <v>131.11113333333333</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="D32" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="86">
+      <c r="E32" s="85">
         <f>-E19</f>
         <v>-27.648291372772636</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="58"/>
-      <c r="E33" s="86">
+      <c r="E33" s="85">
         <f>-E16</f>
         <v>-350</v>
       </c>
@@ -2017,7 +2018,7 @@
       <c r="D34" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="85">
         <f>-E17</f>
         <v>322.26219135185187</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="D35" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="85">
         <f>-E18</f>
         <v>27.73780864814815</v>
       </c>
@@ -2063,7 +2064,7 @@
       <c r="D36" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="85">
         <f t="shared" ref="E36:E37" si="0">-E20</f>
         <v>-27.648299999999999</v>
       </c>
@@ -2086,7 +2087,7 @@
       <c r="D37" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="85">
         <f t="shared" si="0"/>
         <v>-27.648299999999999</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="D38" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="86">
         <v>-50</v>
       </c>
       <c r="F38" s="59" t="s">
@@ -2572,41 +2573,41 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="H5" s="107" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="H5" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="P5" s="106" t="s">
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="P5" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="W5" s="106" t="s">
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="W5" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2624,7 +2625,7 @@
       <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="70" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2642,7 +2643,7 @@
       <c r="M6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="70" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2660,7 +2661,7 @@
       <c r="U6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="71" t="s">
+      <c r="W6" s="70" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="11" t="s">
@@ -2702,13 +2703,13 @@
       <c r="I7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="65">
         <v>0</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="65">
         <v>100</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="65">
         <v>100</v>
       </c>
       <c r="P7" s="63">
@@ -2733,13 +2734,13 @@
       <c r="X7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="66">
+      <c r="Y7" s="65">
         <v>0</v>
       </c>
-      <c r="Z7" s="66">
+      <c r="Z7" s="65">
         <v>100</v>
       </c>
-      <c r="AB7" s="66">
+      <c r="AB7" s="65">
         <v>100</v>
       </c>
     </row>
@@ -2767,15 +2768,15 @@
       <c r="I8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="65">
         <f t="shared" ref="J8:J16" si="1">M7</f>
         <v>100</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="71">
         <f>(F8*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="65">
         <f>J8+K8</f>
         <v>127.77777777777777</v>
       </c>
@@ -2802,15 +2803,15 @@
       <c r="X8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="66">
+      <c r="Y8" s="65">
         <f t="shared" ref="Y8:Y16" si="3">AB7</f>
         <v>100</v>
       </c>
-      <c r="Z8" s="72">
+      <c r="Z8" s="71">
         <f>(U8*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AB8" s="66">
+      <c r="AB8" s="65">
         <f>Y8+Z8</f>
         <v>127.77777777777777</v>
       </c>
@@ -2839,15 +2840,15 @@
       <c r="I9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="65">
         <f t="shared" si="1"/>
         <v>127.77777777777777</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="71">
         <f>(F9*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="65">
         <f>J9+K9</f>
         <v>155.55555555555554</v>
       </c>
@@ -2874,15 +2875,15 @@
       <c r="X9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="66">
+      <c r="Y9" s="65">
         <f t="shared" si="3"/>
         <v>127.77777777777777</v>
       </c>
-      <c r="Z9" s="72">
+      <c r="Z9" s="71">
         <f>(U9*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AB9" s="66">
+      <c r="AB9" s="65">
         <f>Y9+Z9</f>
         <v>155.55555555555554</v>
       </c>
@@ -2898,37 +2899,37 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="65">
         <v>0</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <f>C10+E10</f>
         <v>100000</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="63">
         <v>44595</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="65">
         <f t="shared" si="1"/>
         <v>155.55555555555554</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="71">
         <f>+(F10*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="65">
         <v>0</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="65">
         <f t="shared" ref="M10:M16" si="4">J10+K10+L10</f>
         <v>183.33333333333331</v>
       </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="73"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="72"/>
       <c r="P10" s="63">
         <v>44595</v>
       </c>
@@ -2942,10 +2943,10 @@
       <c r="S10" s="11">
         <v>0</v>
       </c>
-      <c r="T10" s="66">
+      <c r="T10" s="65">
         <v>0</v>
       </c>
-      <c r="U10" s="66">
+      <c r="U10" s="65">
         <f>R10+T10</f>
         <v>100000</v>
       </c>
@@ -2955,11 +2956,11 @@
       <c r="X10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="66">
+      <c r="Y10" s="65">
         <f t="shared" si="3"/>
         <v>155.55555555555554</v>
       </c>
-      <c r="Z10" s="72">
+      <c r="Z10" s="71">
         <f>(U10*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
@@ -2967,7 +2968,7 @@
         <f>-S10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="66">
+      <c r="AB10" s="65">
         <f t="shared" ref="AB10:AB16" si="5">Y10+Z10+AA10</f>
         <v>183.33333333333331</v>
       </c>
@@ -2990,27 +2991,27 @@
         <f>C11+E11</f>
         <v>100000</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="63">
         <v>44596</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="65">
         <f t="shared" si="1"/>
         <v>183.33333333333331</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="71">
         <f>(F11*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66">
+      <c r="L11" s="65"/>
+      <c r="M11" s="65">
         <f t="shared" si="4"/>
         <v>211.11111111111109</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="63">
         <v>44596</v>
       </c>
@@ -3034,15 +3035,15 @@
       <c r="X11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="66">
+      <c r="Y11" s="65">
         <f t="shared" si="3"/>
         <v>183.33333333333331</v>
       </c>
-      <c r="Z11" s="72">
+      <c r="Z11" s="71">
         <f>(U11*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AB11" s="66">
+      <c r="AB11" s="65">
         <f t="shared" si="5"/>
         <v>211.11111111111109</v>
       </c>
@@ -3058,37 +3059,37 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="65">
         <v>0</v>
       </c>
       <c r="F12" s="11">
         <f>C12+E12</f>
         <v>100000</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="63">
         <v>44597</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="65">
         <f t="shared" si="1"/>
         <v>211.11111111111109</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="71">
         <f>+(F12*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="65">
         <v>0</v>
       </c>
-      <c r="M12" s="66">
+      <c r="M12" s="65">
         <f t="shared" si="4"/>
         <v>238.88888888888886</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="73"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="72"/>
       <c r="P12" s="63">
         <v>44597</v>
       </c>
@@ -3102,7 +3103,7 @@
       <c r="S12" s="11">
         <v>0</v>
       </c>
-      <c r="T12" s="66">
+      <c r="T12" s="65">
         <v>0</v>
       </c>
       <c r="U12" s="11">
@@ -3115,18 +3116,18 @@
       <c r="X12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="66">
+      <c r="Y12" s="65">
         <f t="shared" si="3"/>
         <v>211.11111111111109</v>
       </c>
-      <c r="Z12" s="72">
+      <c r="Z12" s="71">
         <f>+(U12*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AA12" s="66">
+      <c r="AA12" s="65">
         <v>0</v>
       </c>
-      <c r="AB12" s="66">
+      <c r="AB12" s="65">
         <f t="shared" si="5"/>
         <v>238.88888888888886</v>
       </c>
@@ -3142,37 +3143,37 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="65">
         <v>0</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" ref="F13:F16" si="6">C13+E13</f>
         <v>100000</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="63">
         <v>44598</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
         <v>238.88888888888886</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="71">
         <f>(F13*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="65">
         <v>0</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="65">
         <f t="shared" si="4"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="63">
         <v>44598</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="S13" s="11">
         <v>0</v>
       </c>
-      <c r="T13" s="66">
+      <c r="T13" s="65">
         <v>0</v>
       </c>
       <c r="U13" s="11">
@@ -3199,18 +3200,18 @@
       <c r="X13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="66">
+      <c r="Y13" s="65">
         <f t="shared" si="3"/>
         <v>238.88888888888886</v>
       </c>
-      <c r="Z13" s="72">
+      <c r="Z13" s="71">
         <f>(U13*$Q$1/360)</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AA13" s="66">
+      <c r="AA13" s="65">
         <v>0</v>
       </c>
-      <c r="AB13" s="66">
+      <c r="AB13" s="65">
         <f t="shared" si="5"/>
         <v>266.66666666666663</v>
       </c>
@@ -3233,27 +3234,27 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="63">
         <v>44599</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="65">
         <f t="shared" si="1"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="71">
         <f>(F14*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66">
+      <c r="L14" s="65"/>
+      <c r="M14" s="65">
         <f t="shared" si="4"/>
         <v>294.4444444444444</v>
       </c>
-      <c r="O14" s="73"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="63">
         <v>44599</v>
       </c>
@@ -3277,15 +3278,15 @@
       <c r="X14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="66">
+      <c r="Y14" s="65">
         <f t="shared" si="3"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="Z14" s="72">
+      <c r="Z14" s="71">
         <f>(U14*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AB14" s="66">
+      <c r="AB14" s="65">
         <f t="shared" si="5"/>
         <v>294.4444444444444</v>
       </c>
@@ -3309,27 +3310,27 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="63">
         <v>44600</v>
       </c>
       <c r="I15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="74">
         <f t="shared" si="1"/>
         <v>294.4444444444444</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="75">
         <f>(F15*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66">
+      <c r="L15" s="65"/>
+      <c r="M15" s="65">
         <f t="shared" si="4"/>
         <v>322.22222222222217</v>
       </c>
-      <c r="O15" s="73"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="63">
         <v>44600</v>
       </c>
@@ -3355,15 +3356,15 @@
       <c r="X15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" s="75">
+      <c r="Y15" s="74">
         <f t="shared" si="3"/>
         <v>294.4444444444444</v>
       </c>
-      <c r="Z15" s="76">
+      <c r="Z15" s="75">
         <f>(U15*$Q$1)/360</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="AB15" s="66">
+      <c r="AB15" s="65">
         <f t="shared" si="5"/>
         <v>322.22222222222217</v>
       </c>
@@ -3394,19 +3395,19 @@
       <c r="I16" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <f t="shared" si="1"/>
         <v>322.22222222222217</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="75">
         <v>0</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66">
+      <c r="L16" s="65"/>
+      <c r="M16" s="65">
         <f t="shared" si="4"/>
         <v>322.22222222222217</v>
       </c>
-      <c r="N16" s="74"/>
+      <c r="N16" s="73"/>
       <c r="P16" s="63">
         <v>44601</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="S16" s="61">
         <v>400</v>
       </c>
-      <c r="T16" s="75">
+      <c r="T16" s="74">
         <f>-(S16+AA16)</f>
         <v>-77.777777777777828</v>
       </c>
@@ -3435,49 +3436,49 @@
       <c r="X16" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="75">
+      <c r="Y16" s="74">
         <f t="shared" si="3"/>
         <v>322.22222222222217</v>
       </c>
-      <c r="Z16" s="76">
+      <c r="Z16" s="75">
         <f>(U16*$Q$1)/360</f>
         <v>27.756172839506174</v>
       </c>
-      <c r="AA16" s="66">
+      <c r="AA16" s="65">
         <f>-AB15</f>
         <v>-322.22222222222217</v>
       </c>
-      <c r="AB16" s="66">
+      <c r="AB16" s="65">
         <f t="shared" si="5"/>
         <v>27.756172839506178</v>
       </c>
     </row>
     <row r="17" spans="26:28" x14ac:dyDescent="0.25">
-      <c r="AB17" s="66">
+      <c r="AB17" s="65">
         <f>AB16-M16</f>
         <v>-294.46604938271599</v>
       </c>
     </row>
     <row r="18" spans="26:28" x14ac:dyDescent="0.25">
-      <c r="AA18" s="66">
+      <c r="AA18" s="65">
         <f>AB16-M16</f>
         <v>-294.46604938271599</v>
       </c>
     </row>
     <row r="19" spans="26:28" x14ac:dyDescent="0.25">
-      <c r="Z19" s="66">
+      <c r="Z19" s="65">
         <f>J16</f>
         <v>322.22222222222217</v>
       </c>
     </row>
     <row r="20" spans="26:28" x14ac:dyDescent="0.25">
-      <c r="Z20" s="66">
+      <c r="Z20" s="65">
         <f>Z16</f>
         <v>27.756172839506174</v>
       </c>
     </row>
     <row r="21" spans="26:28" x14ac:dyDescent="0.25">
-      <c r="Z21" s="66">
+      <c r="Z21" s="65">
         <f>SUM(Z19:Z20)</f>
         <v>349.97839506172835</v>
       </c>
@@ -3502,7 +3503,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3515,16 +3516,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3534,11 +3535,11 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -3634,9 +3635,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:R58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3650,16 +3649,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="90" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3673,11 +3672,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="85"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
@@ -3694,7 +3693,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3711,7 @@
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -3779,8 +3778,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,41 +3796,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3848,7 +3847,7 @@
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="84">
         <v>10</v>
       </c>
       <c r="F5" s="9">
@@ -3862,56 +3861,56 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="83" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
@@ -3946,7 +3945,7 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <v>10</v>
       </c>
       <c r="F12" s="9">
@@ -3976,100 +3975,100 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="80" t="s">
+      <c r="M18" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="80" t="s">
+      <c r="N18" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="O18" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4086,7 +4085,7 @@
       <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="84">
         <v>10</v>
       </c>
       <c r="F19" s="9">
@@ -4095,79 +4094,79 @@
       <c r="G19" s="9">
         <v>127.7778</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="63">
         <v>44594</v>
       </c>
       <c r="K19" s="63">
         <v>44594</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="80" t="s">
+      <c r="M19" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="80">
+      <c r="N19" s="79">
         <v>27.777799999999999</v>
       </c>
-      <c r="O19" s="80" t="s">
+      <c r="O19" s="79" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="83" t="s">
         <v>26</v>
       </c>
       <c r="J25" t="s">
@@ -4202,7 +4201,7 @@
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <v>10</v>
       </c>
       <c r="F26" s="9">
@@ -4251,7 +4250,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="78" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4259,7 +4258,7 @@
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -4279,7 +4278,7 @@
       <c r="B30" s="27">
         <v>44595</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="8">
@@ -4291,56 +4290,56 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="83" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
@@ -4375,7 +4374,7 @@
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E37" s="84">
         <v>10</v>
       </c>
       <c r="F37" s="9">
@@ -4405,56 +4404,56 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="83" t="s">
         <v>26</v>
       </c>
       <c r="J43" t="s">
@@ -4489,7 +4488,7 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="85">
+      <c r="E44" s="84">
         <v>10</v>
       </c>
       <c r="F44" s="9">
@@ -4538,13 +4537,13 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
       <c r="J46" s="63">
         <v>44597</v>
       </c>
@@ -4568,7 +4567,7 @@
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -4588,7 +4587,7 @@
       <c r="B48" s="27">
         <v>44597</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="8">
@@ -4600,100 +4599,100 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="83" t="s">
+      <c r="E54" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="83" t="s">
+      <c r="F54" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="84" t="s">
+      <c r="G54" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80" t="s">
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="80" t="s">
+      <c r="K54" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="80" t="s">
+      <c r="L54" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="80" t="s">
+      <c r="M54" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N54" s="80" t="s">
+      <c r="N54" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O54" s="80" t="s">
+      <c r="O54" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4710,7 +4709,7 @@
       <c r="D55" s="8">
         <v>1</v>
       </c>
-      <c r="E55" s="85">
+      <c r="E55" s="84">
         <v>10</v>
       </c>
       <c r="F55" s="9">
@@ -4719,84 +4718,84 @@
       <c r="G55" s="9">
         <v>27.737799999999993</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
       <c r="J55" s="63">
         <v>44598</v>
       </c>
       <c r="K55" s="63">
         <v>44598</v>
       </c>
-      <c r="L55" s="80" t="s">
+      <c r="L55" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="80" t="s">
+      <c r="M55" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="N55" s="80">
+      <c r="N55" s="79">
         <v>27.648299999999999</v>
       </c>
-      <c r="O55" s="80" t="s">
+      <c r="O55" s="79" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
       <c r="J56" s="63">
         <v>44598</v>
       </c>
       <c r="K56" s="63">
         <v>44598</v>
       </c>
-      <c r="L56" s="80" t="s">
+      <c r="L56" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="80" t="s">
+      <c r="M56" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="N56" s="80">
+      <c r="N56" s="79">
         <v>-322.26220000000001</v>
       </c>
-      <c r="O56" s="80" t="s">
+      <c r="O56" s="79" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
       <c r="J57" s="63">
         <v>44598</v>
       </c>
       <c r="K57" s="63">
         <v>44598</v>
       </c>
-      <c r="L57" s="80" t="s">
+      <c r="L57" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="80" t="s">
+      <c r="M57" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="N57" s="80">
+      <c r="N57" s="79">
         <v>-27.7378</v>
       </c>
-      <c r="O57" s="80" t="s">
+      <c r="O57" s="79" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4804,7 +4803,7 @@
       <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -4816,10 +4815,10 @@
       <c r="E58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
@@ -4828,7 +4827,7 @@
       <c r="B59" s="27">
         <v>44598</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="8">
@@ -4837,81 +4836,81 @@
       <c r="E59" s="9">
         <v>350</v>
       </c>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80" t="s">
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="K59" s="80" t="s">
+      <c r="K59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="L59" s="80" t="s">
+      <c r="L59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="M59" s="80" t="s">
+      <c r="M59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="N59" s="80" t="s">
+      <c r="N59" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="80" t="s">
+      <c r="O59" s="79" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="98"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="99"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="79" t="s">
+      <c r="A64" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="82" t="s">
+      <c r="C65" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="83" t="s">
+      <c r="E65" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="83" t="s">
+      <c r="F65" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="84" t="s">
+      <c r="G65" s="83" t="s">
         <v>26</v>
       </c>
       <c r="J65" t="s">
@@ -4946,7 +4945,7 @@
       <c r="D66" s="8">
         <v>1</v>
       </c>
-      <c r="E66" s="85">
+      <c r="E66" s="84">
         <v>10</v>
       </c>
       <c r="F66" s="9">
@@ -4975,13 +4974,13 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
       <c r="J67" t="s">
         <v>68</v>
       </c>
@@ -5022,100 +5021,100 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="80"/>
-      <c r="O69" s="80"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="82" t="s">
+      <c r="D72" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="83" t="s">
+      <c r="E72" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G72" s="84" t="s">
+      <c r="G72" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80" t="s">
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="80" t="s">
+      <c r="K72" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="80" t="s">
+      <c r="L72" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="80" t="s">
+      <c r="M72" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="80" t="s">
+      <c r="N72" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="80" t="s">
+      <c r="O72" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5132,7 +5131,7 @@
       <c r="D73" s="8">
         <v>1</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="84">
         <v>10</v>
       </c>
       <c r="F73" s="9">
@@ -5141,123 +5140,123 @@
       <c r="G73" s="9">
         <v>55.296599999999991</v>
       </c>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
       <c r="J73" s="63">
         <v>44600</v>
       </c>
       <c r="K73" s="63">
         <v>44600</v>
       </c>
-      <c r="L73" s="80" t="s">
+      <c r="L73" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="80" t="s">
+      <c r="M73" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="N73" s="80">
+      <c r="N73" s="79">
         <v>27.648299999999999</v>
       </c>
-      <c r="O73" s="80" t="s">
+      <c r="O73" s="79" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="96" t="s">
+      <c r="A76" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="80"/>
-      <c r="L77" s="80"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
-      <c r="O77" s="80"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="80"/>
-      <c r="L78" s="80"/>
-      <c r="M78" s="80"/>
-      <c r="N78" s="80"/>
-      <c r="O78" s="80"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="82" t="s">
+      <c r="D79" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="83" t="s">
+      <c r="E79" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="83" t="s">
+      <c r="F79" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G79" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80" t="s">
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="K79" s="80" t="s">
+      <c r="K79" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="80" t="s">
+      <c r="L79" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M79" s="80" t="s">
+      <c r="M79" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="80" t="s">
+      <c r="N79" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O79" s="80" t="s">
+      <c r="O79" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5274,7 +5273,7 @@
       <c r="D80" s="8">
         <v>1</v>
       </c>
-      <c r="E80" s="85">
+      <c r="E80" s="84">
         <v>10</v>
       </c>
       <c r="F80" s="9">
@@ -5283,24 +5282,24 @@
       <c r="G80" s="9">
         <v>82.94489999999999</v>
       </c>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
       <c r="J80" s="63">
         <v>44601</v>
       </c>
       <c r="K80" s="63">
         <v>44601</v>
       </c>
-      <c r="L80" s="80" t="s">
+      <c r="L80" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M80" s="80" t="s">
+      <c r="M80" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="N80" s="80">
+      <c r="N80" s="79">
         <v>27.648299999999999</v>
       </c>
-      <c r="O80" s="80" t="s">
+      <c r="O80" s="79" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5325,7 +5324,7 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="78" t="s">
         <v>61</v>
       </c>
       <c r="J82" s="63">
@@ -5351,7 +5350,7 @@
       <c r="A83" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -5400,7 +5399,7 @@
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="79" t="s">
+      <c r="A86" s="78" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5408,7 +5407,7 @@
       <c r="A87" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -5537,56 +5536,56 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="98"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="99"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
-      <c r="B95" s="80"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="79" t="s">
+      <c r="A96" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="80" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="82" t="s">
+      <c r="C97" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="82" t="s">
+      <c r="D97" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="83" t="s">
+      <c r="E97" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="83" t="s">
+      <c r="F97" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G97" s="84" t="s">
+      <c r="G97" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5603,7 +5602,7 @@
       <c r="D98" s="8">
         <v>1</v>
       </c>
-      <c r="E98" s="85">
+      <c r="E98" s="84">
         <v>10</v>
       </c>
       <c r="F98" s="9">
@@ -5615,17 +5614,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A94:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5639,8 +5638,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,19 +5659,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -5702,7 +5701,7 @@
       </c>
       <c r="D4" s="63"/>
     </row>
-    <row r="5" spans="1:14" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -5716,7 +5715,10 @@
       <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="94">
+        <f>COUNT(REPLAY!B2:B13)+1</f>
+        <v>1</v>
+      </c>
       <c r="C6" s="64"/>
       <c r="D6" s="63"/>
     </row>
@@ -5762,7 +5764,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="95">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="str">
@@ -5805,15 +5807,15 @@
         <f>IFERROR(IF(B9="","",D9-G9+J9),0)</f>
         <v/>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="87">
         <f>IF(G9&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="65"/>
       <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="95">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="str">
@@ -5856,15 +5858,15 @@
         <f t="shared" ref="K10:K20" si="5">IFERROR(IF(B10="","",D10-G10+J10),0)</f>
         <v/>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="87">
         <f t="shared" ref="L10:L20" si="6">IF(G10&lt;&gt;"",ROW(),0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="65"/>
       <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="95">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="str">
@@ -5907,15 +5909,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M11" s="66"/>
+      <c r="M11" s="65"/>
       <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="95">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="str">
@@ -5958,15 +5960,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M12" s="66"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="95">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="str">
@@ -6009,7 +6011,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" s="88">
+      <c r="L13" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6017,7 +6019,7 @@
       <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="95">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="str">
@@ -6060,7 +6062,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6068,7 +6070,7 @@
       <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="95">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="str">
@@ -6111,7 +6113,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6119,7 +6121,7 @@
       <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="95">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="str">
@@ -6162,7 +6164,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L16" s="88">
+      <c r="L16" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6176,7 +6178,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="95">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="str">
@@ -6219,7 +6221,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6233,7 +6235,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="95">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="str">
@@ -6276,7 +6278,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L18" s="88">
+      <c r="L18" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6290,7 +6292,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="95">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="str">
@@ -6333,7 +6335,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6347,7 +6349,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="95">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="str">
@@ -6390,7 +6392,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="88">
+      <c r="L20" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6459,19 +6461,19 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="105"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -6556,10 +6558,10 @@
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="105"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
@@ -6574,7 +6576,7 @@
       <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <f>IF(C9="",0,K21-K26)</f>
         <v>0</v>
       </c>
@@ -6591,10 +6593,10 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="104"/>
+      <c r="B34" s="105"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -6609,21 +6611,21 @@
       <c r="A36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>IF(C9="",0,I21-I26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -6810,16 +6812,16 @@
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
       <c r="J1" s="26" t="s">
         <v>3</v>
       </c>
@@ -6839,8 +6841,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="63"/>
@@ -7011,7 +7013,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7039,7 +7041,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7061,18 +7063,18 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7159,7 +7161,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7187,7 +7189,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7209,26 +7211,26 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -7312,13 +7314,13 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
       <c r="J37" s="63">
         <v>45697</v>
       </c>
@@ -7385,7 +7387,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7427,12 +7429,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
@@ -7440,7 +7442,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>82</v>
       </c>
       <c r="B14" t="s">
@@ -7448,7 +7450,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7464,52 +7466,52 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7533,8 +7535,8 @@
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="93" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="92" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="92" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="2"/>
@@ -7547,10 +7549,10 @@
       <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="26" t="s">
